--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2427534.69762657</v>
+        <v>2423229.574629501</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>137.0472549757182</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8405921356978</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.8814412733158</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.3999168133673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>197.884667518127</v>
       </c>
       <c r="H5" t="n">
-        <v>3.869675225350548</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760039</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425904</v>
+        <v>23.94240680425867</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>58.65331256108474</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937513</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>169.2327851393902</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>127.7504046318358</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589129</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>101.8523455598174</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>166.6343266255521</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.72533991708939</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>52.08218893321278</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>122.717868409183</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.174931661264</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>8.616048582069491</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>63.69463930750848</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>212.8988206105702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>217.0250037474727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>183.8417748468617</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.98177228777837</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>71.58885292964064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>112.528443452332</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474254</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>112.2919725119092</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433438</v>
+        <v>482.8222414097411</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268589</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268589</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268589</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433438</v>
+        <v>672.2420264262261</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433438</v>
+        <v>482.8222414097411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.9546307030099</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="X3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Y3" t="n">
-        <v>417.1699677230779</v>
+        <v>750.1023486652804</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.718566540653</v>
+        <v>1372.65567919709</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.718566540653</v>
+        <v>1003.693162256679</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.452867933903</v>
+        <v>645.4274636499281</v>
       </c>
       <c r="E5" t="n">
-        <v>959.6646153356585</v>
+        <v>645.4274636499281</v>
       </c>
       <c r="F5" t="n">
-        <v>548.678710546051</v>
+        <v>234.4415588603205</v>
       </c>
       <c r="G5" t="n">
-        <v>132.2626653601425</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030762</v>
+        <v>521.2049416030787</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709181</v>
+        <v>823.5081935709218</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582757</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540653</v>
+        <v>1372.65567919709</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540653</v>
+        <v>1372.65567919709</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540653</v>
+        <v>1372.65567919709</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540653</v>
+        <v>1372.65567919709</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>580.4162616464794</v>
+        <v>663.7175082377066</v>
       </c>
       <c r="C6" t="n">
-        <v>521.1704913827574</v>
+        <v>489.2644789565796</v>
       </c>
       <c r="D6" t="n">
-        <v>521.1704913827574</v>
+        <v>340.3300692953284</v>
       </c>
       <c r="E6" t="n">
-        <v>361.9330363773019</v>
+        <v>181.0926142898729</v>
       </c>
       <c r="F6" t="n">
-        <v>215.3984784041869</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787585</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806065</v>
+        <v>186.1577239806074</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189982</v>
+        <v>399.8722171189999</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223506</v>
+        <v>668.6238185223531</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352487</v>
+        <v>958.897120035252</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228324</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703775</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.30937869937</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419125</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="U6" t="n">
-        <v>834.6536183746811</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="V6" t="n">
-        <v>834.6536183746811</v>
+        <v>1210.726552674813</v>
       </c>
       <c r="W6" t="n">
-        <v>580.4162616464794</v>
+        <v>1210.726552674813</v>
       </c>
       <c r="X6" t="n">
-        <v>580.4162616464794</v>
+        <v>1002.87505246928</v>
       </c>
       <c r="Y6" t="n">
-        <v>580.4162616464794</v>
+        <v>831.9328452577747</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="C7" t="n">
-        <v>150.0082798116193</v>
+        <v>163.598869076188</v>
       </c>
       <c r="D7" t="n">
-        <v>150.0082798116193</v>
+        <v>163.598869076188</v>
       </c>
       <c r="E7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="F7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="G7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675784</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574697</v>
+        <v>64.24066662574742</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584117</v>
+        <v>132.1299861584125</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347974</v>
+        <v>206.9680378347987</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195369</v>
+        <v>287.8841338195386</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193472</v>
+        <v>342.3101561934741</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858008</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858008</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="R7" t="n">
-        <v>252.8894369427479</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="S7" t="n">
-        <v>252.8894369427479</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="T7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="U7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="V7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="W7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="X7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.0082798116193</v>
+        <v>332.5350520040949</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.740097465976</v>
+        <v>588.8885387922076</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>588.8885387922076</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>230.6228401854571</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2107.121099715674</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>1896.947101867589</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>1643.339937530098</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>1643.339937530098</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.339937530098</v>
+        <v>1352.493629029099</v>
       </c>
       <c r="X8" t="n">
-        <v>1643.339937530098</v>
+        <v>979.0278707680193</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.339937530098</v>
+        <v>588.8885387922076</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.0966263366561</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6435970555291</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6435970555291</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6435970555291</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6435970555291</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6435970555291</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4919,16 +4919,16 @@
         <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="X9" t="n">
-        <v>683.072262121678</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>475.3119633567241</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>171.9636155141767</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>171.9636155141767</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>171.9636155141767</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.9636155141767</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1021.293348608258</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>852.3571656803514</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>702.2405262680156</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>554.3274326856225</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>407.4374851877121</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>240.2413859025921</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.941813438498</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
         <v>949.9304447718133</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.983708831312</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,73 +5886,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1466.014387565343</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
         <v>1280.315625093766</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6320,7 +6320,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908939</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2417.688566117858</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2234.833731772762</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.232266795703</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.157040139901</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1471.472551934014</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1182.055381897054</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897054</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3859.943950016836</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3570.526779979875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3342.537229081858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6967,19 +6967,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1030.857960751344</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>810.0653816078141</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.60007353871538</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.506629716718038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.11263957635535</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.74287850523305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.39347442234332</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>32.89260457059922</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>58.20633287440185</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>113.417682877128</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253125</v>
+        <v>270592.3620253143</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231927</v>
+        <v>115410.0540231909</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881972</v>
+        <v>62913.63765882017</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197477</v>
+        <v>27875.25362197437</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26432,7 +26432,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936834</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217693</v>
+        <v>-290571.8961217694</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379216</v>
+        <v>82674.85197379097</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.2456768573</v>
+        <v>261495.245676859</v>
       </c>
       <c r="E6" t="n">
-        <v>-91853.81868028457</v>
+        <v>-92201.1979346415</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939807</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939802</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939801</v>
+        <v>509242.0096396235</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939806</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="J6" t="n">
-        <v>460524.4441654357</v>
+        <v>460177.0649110787</v>
       </c>
       <c r="K6" t="n">
-        <v>446675.7512351608</v>
+        <v>446328.3719808033</v>
       </c>
       <c r="L6" t="n">
-        <v>481714.1352720059</v>
+        <v>481366.756017649</v>
       </c>
       <c r="M6" t="n">
-        <v>352443.0083423824</v>
+        <v>352095.6290880252</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939805</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939806</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396233</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950618</v>
+        <v>758.8996292950633</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.975703959473</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821571</v>
+        <v>210.4296883821585</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262232</v>
+        <v>94.81103524262085</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666917</v>
+        <v>110.1392527666901</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931529</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666902</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>228.2256367952893</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>290.0354536060137</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>61.65174237655158</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>98.28277896393706</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275027</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.3672172159224</v>
       </c>
       <c r="H5" t="n">
-        <v>304.360580846123</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760014</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,7 +27675,7 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>114.055186427231</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937502</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074772</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>36.44991063791412</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.68355801473334</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304047</v>
+        <v>30.24193919304027</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589152</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>120.2459844296333</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>215.2960434467097</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.08796879216104</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>42.41862432864237</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27991,13 +27991,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>83.05511679429449</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28067,7 +28067,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>72.06012615445269</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286704</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520278</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511778</v>
+        <v>481.4474502511787</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968101</v>
+        <v>535.7030533968111</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610698</v>
+        <v>544.3712888610709</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191501</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860974</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634664</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098735</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.52130774898998</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062487</v>
+        <v>56.20152915062498</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.221291647594</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721897</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658094</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468676</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374462</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872491</v>
+        <v>311.7072835872497</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947727</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378882</v>
+        <v>6.579516597378896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734541</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635565</v>
+        <v>96.75348224635584</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054712</v>
+        <v>61.53307486054724</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830802</v>
+        <v>5.847259438830814</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656353</v>
+        <v>0.07464586517656369</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>152.1871379112071</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>152.1871379112071</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>396.9700886943664</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,31 +33973,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34450,7 +34450,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198411</v>
+        <v>77.89141170198462</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070472</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811915</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695374</v>
+        <v>305.3568201695384</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644789</v>
+        <v>314.9582252644799</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974634</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308278</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890169</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092728</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923155</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437911</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635343</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993001</v>
+        <v>245.7813799930018</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729195</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872829</v>
+        <v>68.38629016872872</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554472</v>
+        <v>29.98243465554503</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501486</v>
+        <v>68.57507023501526</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230884</v>
+        <v>75.59399159230927</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876157</v>
+        <v>81.7334302876161</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569202</v>
+        <v>54.97578017569242</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235234</v>
+        <v>27.78676100235265</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>25.34951124454042</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>25.34951124454042</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>254.8360547723481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2423229.574629501</v>
+        <v>2424990.104932286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>137.0472549757182</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>96.86671316392851</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.8814412733158</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78.53267753246369</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>52.21594625443465</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>58.73949975786052</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>197.884667518127</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425867</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>196.350676511508</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>169.2327851393902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>76.41257237836733</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>127.7504046318358</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589129</v>
+        <v>36.91115760589143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>288.3496685154954</v>
       </c>
       <c r="E8" t="n">
-        <v>166.6343266255521</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>145.2986035734992</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>122.717868409183</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.616048582069491</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>143.9002723490403</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695543</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>182.0021194810425</v>
       </c>
       <c r="U22" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833592</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>240.5320234084496</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>176.1811323375794</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>172.3645574474254</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097411</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271974</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271974</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271974</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
@@ -4336,7 +4336,7 @@
         <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262261</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262261</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262261</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262261</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262261</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097411</v>
+        <v>414.0172523312953</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>408.1920857084654</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330561</v>
@@ -4412,49 +4412,49 @@
         <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652804</v>
+        <v>597.6118707249503</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652804</v>
+        <v>408.1920857084654</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652804</v>
+        <v>408.1920857084654</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330561</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1372.65567919709</v>
+        <v>1262.405516645687</v>
       </c>
       <c r="C5" t="n">
-        <v>1003.693162256679</v>
+        <v>1203.072688607444</v>
       </c>
       <c r="D5" t="n">
-        <v>645.4274636499281</v>
+        <v>844.8069900006935</v>
       </c>
       <c r="E5" t="n">
-        <v>645.4274636499281</v>
+        <v>459.0187374024493</v>
       </c>
       <c r="F5" t="n">
-        <v>234.4415588603205</v>
+        <v>452.0732366532458</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675784</v>
+        <v>439.6975955077414</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675784</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746986</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030787</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709218</v>
+        <v>823.5081935709196</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582757</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079246</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332765</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837892</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540661</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540661</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540661</v>
+        <v>1516.043480974323</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540661</v>
+        <v>1262.405516645687</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.65567919709</v>
+        <v>1262.405516645687</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.65567919709</v>
+        <v>1262.405516645687</v>
       </c>
       <c r="X5" t="n">
-        <v>1372.65567919709</v>
+        <v>1262.405516645687</v>
       </c>
       <c r="Y5" t="n">
-        <v>1372.65567919709</v>
+        <v>1262.405516645687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377066</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565796</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953284</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898729</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787585</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806074</v>
+        <v>186.1577239806069</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189999</v>
+        <v>399.8722171189988</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223531</v>
+        <v>668.6238185223515</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035252</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228324</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639514</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674813</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="W6" t="n">
-        <v>1210.726552674813</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>1002.87505246928</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577747</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.5350520040949</v>
+        <v>111.7424728605631</v>
       </c>
       <c r="C7" t="n">
-        <v>163.598869076188</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="D7" t="n">
-        <v>163.598869076188</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675784</v>
+        <v>34.55805631675775</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574742</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584125</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347987</v>
+        <v>206.9680378347979</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195386</v>
+        <v>287.8841338195376</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934741</v>
+        <v>342.3101561934728</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858017</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="X7" t="n">
-        <v>332.5350520040949</v>
+        <v>332.5350520040932</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.5350520040949</v>
+        <v>111.7424728605631</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>588.8885387922076</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="C8" t="n">
-        <v>588.8885387922076</v>
+        <v>1450.79709949696</v>
       </c>
       <c r="D8" t="n">
-        <v>230.6228401854571</v>
+        <v>1159.534808067167</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>773.7465554689227</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4804,13 +4804,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.262284299213</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1352.493629029099</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>979.0278707680193</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="Y8" t="n">
-        <v>588.8885387922076</v>
+        <v>1837.396939561082</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>525.9940904859268</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1619.460781097629</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>1391.359191230893</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.461727081622</v>
+        <v>1156.20708299915</v>
       </c>
       <c r="W9" t="n">
-        <v>1172.461727081622</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="10">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5083,10 +5083,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>120.680066384834</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2013.222020759242</v>
       </c>
       <c r="U22" t="n">
-        <v>1790.525374274257</v>
+        <v>1724.14679410344</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1469.462305897553</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1180.045135860592</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>952.0555849625744</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190442</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998264</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,67 +7545,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
         <v>1729.097755135313</v>
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,28 +7660,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.9994244361429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.533690297528835</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016556</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.751665644813329e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="U22" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823339</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>45.65245098079453</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0033420516648</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624518</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.04089287986218</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.1584408891656</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>58.20633287440185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930389</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930391</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930392</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597551</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26368,13 +26368,13 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253143</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231909</v>
+        <v>115410.054023192</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.9447285447</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882017</v>
+        <v>62913.63765881983</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197437</v>
+        <v>27875.25362197465</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263457</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186722</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186712</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26456,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936834</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290571.8961217694</v>
+        <v>-290571.8961217692</v>
       </c>
       <c r="C6" t="n">
-        <v>82674.85197379097</v>
+        <v>82674.85197379193</v>
       </c>
       <c r="D6" t="n">
-        <v>261495.245676859</v>
+        <v>261495.2456768578</v>
       </c>
       <c r="E6" t="n">
-        <v>-92201.1979346415</v>
+        <v>-91888.5566057206</v>
       </c>
       <c r="F6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.650968545</v>
       </c>
       <c r="G6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="H6" t="n">
-        <v>509242.0096396235</v>
+        <v>509554.6509685449</v>
       </c>
       <c r="I6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685448</v>
       </c>
       <c r="J6" t="n">
-        <v>460177.0649110787</v>
+        <v>460489.7062400001</v>
       </c>
       <c r="K6" t="n">
-        <v>446328.3719808033</v>
+        <v>446641.0133097249</v>
       </c>
       <c r="L6" t="n">
-        <v>481366.756017649</v>
+        <v>481679.3973465699</v>
       </c>
       <c r="M6" t="n">
-        <v>352095.6290880252</v>
+        <v>352408.2704169465</v>
       </c>
       <c r="N6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="O6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="P6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685445</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950633</v>
+        <v>758.8996292950624</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,7 +26792,7 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959473</v>
+        <v>431.9757039594719</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26801,19 +26801,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821585</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262085</v>
+        <v>94.81103524262176</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666902</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27038,10 +27038,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666901</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666902</v>
+        <v>110.1392527666913</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2256367952893</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>154.3025474011018</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.65174237655158</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265835</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>173.1623056284559</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275027</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,7 +27554,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773849</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>306.533392013147</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>214.3672172159224</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760014</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425889</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937502</v>
+        <v>43.32085084937509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074772</v>
+        <v>44.33060630074785</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27754,16 +27754,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>55.34430664941158</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.44991063791412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>90.8342487202605</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.68355801473334</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304027</v>
+        <v>30.24193919304039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>66.3333731051876</v>
       </c>
       <c r="E8" t="n">
-        <v>215.2960434467097</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>47.46461473726458</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>83.05511679429449</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.210944662230847e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.095694117447281e-11</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.729525039338374e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.545928107941364e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28967,16 +28967,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29015,16 +29015,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29219,52 +29219,52 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.23251587928589e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.516557213690607e-13</v>
       </c>
     </row>
     <row r="26">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.607718096583367e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30471,10 +30471,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085679</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429372</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520278</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511787</v>
+        <v>481.4474502511782</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968111</v>
+        <v>535.7030533968106</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610709</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191501</v>
+        <v>514.0343715191495</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860974</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634664</v>
+        <v>329.457778263466</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098735</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898998</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920257</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868543</v>
+        <v>0.244068222486854</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030891</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062498</v>
+        <v>56.20152915062491</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647594</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721897</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658094</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468676</v>
+        <v>424.5470671468671</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374462</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872497</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947727</v>
+        <v>30.32018801947724</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378896</v>
+        <v>6.579516597378888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734541</v>
+        <v>41.15475366734536</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635584</v>
+        <v>96.75348224635572</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399143</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528493</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275352</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515003</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054724</v>
+        <v>61.53307486054717</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391206</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830814</v>
+        <v>5.847259438830807</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656369</v>
+        <v>0.07464586517656359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>152.1871379112071</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.1871379112071</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198462</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070472</v>
+        <v>167.9900634070468</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811915</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695384</v>
+        <v>305.3568201695379</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644799</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974634</v>
+        <v>283.9361600974628</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308278</v>
+        <v>207.4834477308273</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890169</v>
+        <v>107.1520883890165</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092728</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923155</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437911</v>
+        <v>271.4662640437906</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635343</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930018</v>
+        <v>245.7813799930013</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729195</v>
+        <v>177.7328761729191</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872872</v>
+        <v>68.38629016872846</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554503</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501526</v>
+        <v>68.575070235015</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230927</v>
+        <v>75.59399159230901</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876161</v>
+        <v>81.73343028761587</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569242</v>
+        <v>54.97578017569217</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235265</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.34951124454042</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>25.34951124454042</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
